--- a/Labs.xlsx
+++ b/Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novik\GREGUS\leti_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB9CEB-F307-453A-8049-E5F4A1DDEB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDE141-8BE7-4D15-BEBA-CF70672AEAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78116B68-90A9-4597-9D2D-3863A59FB791}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Схемотехника</t>
   </si>
@@ -75,9 +75,6 @@
     <t>ДАТЫ</t>
   </si>
   <si>
-    <t>1-4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -117,7 +114,16 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>1 пр?</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -285,6 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -300,11 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -623,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF37275-C99A-4898-97F3-8847E5CBF3CE}">
   <dimension ref="A1:BI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,43 +649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10">
         <v>45194</v>
       </c>
@@ -689,33 +704,49 @@
       <c r="H2" s="11">
         <v>45208</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="20">
+        <v>45210</v>
+      </c>
+      <c r="J2" s="20">
         <v>45214</v>
       </c>
-      <c r="J2" s="11">
+      <c r="K2" s="11">
         <v>45215</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
+        <v>45217</v>
+      </c>
+      <c r="M2" s="11">
         <v>45219</v>
       </c>
-      <c r="L2" s="11">
+      <c r="N2" s="11">
         <v>45222</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
+        <v>45224</v>
+      </c>
+      <c r="P2" s="11">
         <v>45229</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
       <c r="Q2" s="11">
+        <v>45231</v>
+      </c>
+      <c r="R2" s="11">
+        <v>45236</v>
+      </c>
+      <c r="S2" s="11">
+        <v>45238</v>
+      </c>
+      <c r="T2" s="11">
         <v>45240</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="11">
+        <v>45243</v>
+      </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="W2" s="11">
+        <v>45250</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -731,8 +762,8 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="26" t="s">
-        <v>27</v>
+      <c r="F3" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -792,7 +823,7 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -808,8 +839,8 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
@@ -942,15 +973,13 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>17</v>
+      <c r="H7" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -991,7 +1020,7 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -1092,37 +1121,42 @@
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="H10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="24" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="R10" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="U10" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="W10" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -1147,7 +1181,7 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1251,22 +1285,30 @@
         <v>7</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -1295,7 +1337,7 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
@@ -1399,16 +1441,24 @@
         <v>14</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -1441,7 +1491,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1548,13 +1598,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -1591,7 +1639,7 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>8</v>
@@ -1697,10 +1745,9 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="8"/>
+      <c r="G22" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -1708,12 +1755,11 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
@@ -1796,6 +1842,6 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>